--- a/AF4_conf.xlsx
+++ b/AF4_conf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTWork\SCRIPTS\ptaf-pro-conf_ansible\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTWork\SCRIPTS\ptaf-pro-conf_ansible-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97BDE4F-8C90-42A0-8501-EF5E0046D06A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C265A7BC-533D-4148-A7EB-E55EFC371CB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="11745" xr2:uid="{BDDD9177-F6CF-42C1-B99E-562E59E75EA2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="719">
   <si>
     <t>DNS сервера</t>
   </si>
@@ -2140,51 +2140,24 @@
     <t>Отключить принудительно cloud-init?</t>
   </si>
   <si>
-    <t>admin@123</t>
-  </si>
-  <si>
-    <t>192.168.0.171</t>
-  </si>
-  <si>
     <t>255.255.255.0</t>
   </si>
   <si>
-    <t>192.168.0.1</t>
-  </si>
-  <si>
     <t>172.16.10.10</t>
   </si>
   <si>
-    <t>255.255.255.248</t>
-  </si>
-  <si>
     <t>time.google.com</t>
   </si>
   <si>
     <t>8.8.8.8</t>
   </si>
   <si>
-    <t>admin@124</t>
-  </si>
-  <si>
-    <t>admin@125</t>
-  </si>
-  <si>
-    <t>192.168.0.172</t>
-  </si>
-  <si>
-    <t>192.168.0.173</t>
-  </si>
-  <si>
     <t>172.16.10.11</t>
   </si>
   <si>
     <t>172.16.10.12</t>
   </si>
   <si>
-    <t>10.10.10.10</t>
-  </si>
-  <si>
     <t>ptaf-vm1</t>
   </si>
   <si>
@@ -2194,13 +2167,34 @@
     <t>ptaf-vm3</t>
   </si>
   <si>
-    <t>ptaf-vm4</t>
-  </si>
-  <si>
-    <t>192.168.0.174</t>
-  </si>
-  <si>
-    <t>172.16.10.13</t>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>192.168.88.171</t>
+  </si>
+  <si>
+    <t>192.168.88.172</t>
+  </si>
+  <si>
+    <t>192.168.88.173</t>
+  </si>
+  <si>
+    <t>192.168.88.1</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>192.168.88.170</t>
+  </si>
+  <si>
+    <t>ens18</t>
+  </si>
+  <si>
+    <t>ens19</t>
   </si>
 </sst>
 </file>
@@ -2788,7 +2782,7 @@
   <dimension ref="A1:AP594"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,17 +2884,15 @@
         <v>61</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>41</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2927,17 +2919,15 @@
         <v>63</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>709</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>709</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
@@ -2967,17 +2957,15 @@
         <v>32</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>718</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -3007,17 +2995,15 @@
         <v>682</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>684</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>684</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -3043,17 +3029,15 @@
         <v>9</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>711</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>719</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -3078,17 +3062,15 @@
         <v>10</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>702</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>702</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -3113,17 +3095,15 @@
         <v>11</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>703</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>703</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -3150,17 +3130,15 @@
         <v>23</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -3195,9 +3173,7 @@
       <c r="E10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>53</v>
-      </c>
+      <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -3221,18 +3197,16 @@
       <c r="B11" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>685</v>
-      </c>
+      <c r="C11" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -3257,17 +3231,15 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>712</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>720</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -3292,17 +3264,15 @@
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>705</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -3364,9 +3334,7 @@
       <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -3401,9 +3369,7 @@
       <c r="E16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>53</v>
-      </c>
+      <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -3432,9 +3398,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="35" t="s">
-        <v>686</v>
-      </c>
+      <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -3461,9 +3425,7 @@
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="34" t="s">
-        <v>714</v>
-      </c>
+      <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
@@ -3490,9 +3452,7 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
-        <v>702</v>
-      </c>
+      <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -3549,9 +3509,7 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="34" t="s">
-        <v>25</v>
-      </c>
+      <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -3580,9 +3538,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="35" t="s">
-        <v>53</v>
-      </c>
+      <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
@@ -3795,17 +3751,15 @@
         <v>696</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F29" s="17"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
@@ -3848,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -3892,10 +3846,14 @@
         <v>2</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>707</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
+        <v>703</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>709</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>710</v>
+      </c>
       <c r="AA33" t="s">
         <v>46</v>
       </c>
@@ -3914,13 +3872,13 @@
         <v>20</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="27" t="str">
         <f>"https://" &amp; C34 &amp; ":3000"</f>
-        <v>https://192.168.0.171:3000</v>
+        <v>https://192.168.88.170:3000</v>
       </c>
       <c r="AA34" t="s">
         <v>25</v>
@@ -3940,12 +3898,12 @@
         <v>21</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="D35" s="10"/>
       <c r="F35" s="27" t="str">
         <f>"https://" &amp;C35</f>
-        <v>https://192.168.0.171</v>
+        <v>https://192.168.88.170</v>
       </c>
       <c r="AP35" s="33" t="s">
         <v>123</v>
@@ -3959,13 +3917,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="27" t="str">
         <f>"https://" &amp;C36&amp;":8443"</f>
-        <v>https://192.168.0.171:8443</v>
+        <v>https://192.168.88.170:8443</v>
       </c>
       <c r="AA36" t="s">
         <v>53</v>
@@ -3982,7 +3940,7 @@
         <v>75</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="F37" s="28"/>
       <c r="AA37" t="s">
@@ -6831,10 +6789,10 @@
   </sortState>
   <dataConsolidate/>
   <dataValidations count="12">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="IP address" error="Please enter correct IP address" sqref="D33:E33 Y12 Y14 Y6 C26:Y26 Y20 Y8 C20:T20 Y18 C24:Y24 C33:C36 C18:T18 C31:E31 C14:T14 C8:T8 C6:T6 C12:T12" xr:uid="{F4A9DD59-10E1-4570-A620-994D614F80F3}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="IP address" error="Please enter correct IP address" sqref="D33:E33 Y12 Y14 Y6 C26:Y26 Y20 Y8 C20:T20 Y18 C24:Y24 C8:T8 C18:T18 C31:E31 C14:T14 C12:T12 C6:T6 C33:C36" xr:uid="{F4A9DD59-10E1-4570-A620-994D614F80F3}">
       <formula1>AND(LEN(C6)-LEN(SUBSTITUTE(C6,".",""))=3,--LEFT(C6,FIND(".",C6)-1)&lt;224,--LEFT(C6,FIND(".",C6)-1)&gt;0,--MID(SUBSTITUTE(C6,".","    "),6,5)&lt;256,--MID(SUBSTITUTE(C6,".","      "),15,7)&lt;256,--MID(SUBSTITUTE(C6,".","      "),22,10)&lt;256)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Netmask" error="Please enter correct netmask" sqref="Y7 C25:Y25 Y19 Y13 C7:T7 C13:T13 C19:T19" xr:uid="{A53661DA-36E4-4B74-A278-B7516EFEA0F7}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Netmask" error="Please enter correct netmask" sqref="Y7 C25:Y25 Y19 Y13 C7:T7 C19:T19 C13:T13" xr:uid="{A53661DA-36E4-4B74-A278-B7516EFEA0F7}">
       <formula1>AND(LEN(C7)-LEN(SUBSTITUTE(C7,".",""))=3,--LEFT(C7,FIND(".",C7)-1)&lt;256,--LEFT(C7,FIND(".",C7)-1)&gt;0,--MID(SUBSTITUTE(C7,".","    "),6,5)&lt;256,--MID(SUBSTITUTE(C7,".","      "),15,7)&lt;256,--MID(SUBSTITUTE(C7,".","      "),22,10)&lt;256)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9 C27:Y27 Y21 Y15 C21:T21 C15:T15 C9:T9" xr:uid="{DC81CD85-3F94-40CD-B28A-B7045572A454}">
@@ -6868,13 +6826,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{75094916-C9E8-45BD-81BC-515462435568}"/>
-    <hyperlink ref="D3" r:id="rId2" display="admin@123" xr:uid="{00D96852-EA86-4A8C-892C-C5415BB3094A}"/>
-    <hyperlink ref="E3" r:id="rId3" display="admin@123" xr:uid="{134BF09D-7E35-455C-AD34-A4DACF1EE4EE}"/>
-    <hyperlink ref="F3" r:id="rId4" display="admin@123" xr:uid="{7D16BFD8-B112-4D49-A38B-88B2F6E56127}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C776F13A-B8A8-4E0B-92A7-412E45BCF637}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{151511E1-952D-4A9F-A2B7-5229FDB36300}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/AF4_conf.xlsx
+++ b/AF4_conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTWork\SCRIPTS\ptaf-pro-conf_ansible-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B507433-6089-46CC-ABA7-5B811F5A81F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2448A-0EF8-46F3-A961-C1C90D0EFC99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="11745" xr2:uid="{BDDD9177-F6CF-42C1-B99E-562E59E75EA2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="762">
   <si>
     <t>DNS сервера</t>
   </si>
@@ -2218,9 +2218,6 @@
     <t>Тэг vlan4</t>
   </si>
   <si>
-    <t>Режим бонда (0 — round-robin; 1 — active-backup (используется по умолчанию); 2 — balance-xor; 3 — broadcast; 4 — 802.3ad; 5 — balance-tlb; 6 — balance-alb.)</t>
-  </si>
-  <si>
     <t>bond0_int1</t>
   </si>
   <si>
@@ -2315,6 +2312,18 @@
   </si>
   <si>
     <t xml:space="preserve">Нужны бонды? </t>
+  </si>
+  <si>
+    <t>Режим бонда (0 — round-robin; 1 — active-backup); 2 — balance-xor; 3 — broadcast; 4 — 802.3ad; 5 — balance-tlb; 6 — balance-alb.)</t>
+  </si>
+  <si>
+    <t>bond1 интерфейс2</t>
+  </si>
+  <si>
+    <t>bond0</t>
+  </si>
+  <si>
+    <t>bond1</t>
   </si>
 </sst>
 </file>
@@ -2918,8 +2927,8 @@
   <dimension ref="A1:AP594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3132,13 +3141,13 @@
         <v>678</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>713</v>
+        <v>760</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>713</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>713</v>
+        <v>760</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -3335,13 +3344,13 @@
         <v>679</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>714</v>
+        <v>761</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>714</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -4103,7 +4112,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>694</v>
@@ -4120,10 +4129,10 @@
     </row>
     <row r="40" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -4155,10 +4164,10 @@
     </row>
     <row r="41" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -4185,9 +4194,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>715</v>
@@ -4225,7 +4234,7 @@
         <v>722</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -4260,7 +4269,7 @@
         <v>723</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
@@ -4295,7 +4304,7 @@
         <v>724</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
@@ -4330,7 +4339,7 @@
         <v>725</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -4362,10 +4371,10 @@
     </row>
     <row r="47" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
@@ -4397,10 +4406,10 @@
     </row>
     <row r="48" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C48" s="40"/>
       <c r="D48" s="40"/>
@@ -4430,9 +4439,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>719</v>
@@ -4464,7 +4473,7 @@
         <v>722</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="40"/>
@@ -4493,7 +4502,7 @@
         <v>723</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
@@ -4522,7 +4531,7 @@
         <v>724</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
@@ -4551,7 +4560,7 @@
         <v>725</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
@@ -4577,10 +4586,10 @@
     </row>
     <row r="54" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
@@ -4606,10 +4615,10 @@
     </row>
     <row r="55" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
@@ -4633,9 +4642,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>720</v>
@@ -4667,7 +4676,7 @@
         <v>722</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
@@ -4696,7 +4705,7 @@
         <v>723</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
@@ -4725,7 +4734,7 @@
         <v>724</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
@@ -4754,7 +4763,7 @@
         <v>725</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
@@ -4780,10 +4789,10 @@
     </row>
     <row r="61" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="40"/>
@@ -4809,10 +4818,10 @@
     </row>
     <row r="62" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
@@ -4836,9 +4845,9 @@
         <v>547</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>721</v>
@@ -4870,7 +4879,7 @@
         <v>722</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
@@ -4899,7 +4908,7 @@
         <v>723</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
@@ -4928,7 +4937,7 @@
         <v>724</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C66" s="40"/>
       <c r="D66" s="40"/>
@@ -4957,7 +4966,7 @@
         <v>725</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C67" s="40"/>
       <c r="D67" s="40"/>
@@ -7662,7 +7671,7 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ограничения" error="Должно быть число" sqref="C64:T67 C57:T60 C50:T53 C43:T46" xr:uid="{1EFA624B-B6C6-4622-A1A7-19FCEEA03AF1}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ограничения" error="Число от 0 до 6" sqref="C63:T63 C56:T56 C42:T42 C49:T49" xr:uid="{43A5506A-8986-41FF-A5E0-38C68C02B540}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ограничения" error="Число от 0 до 6" sqref="C63:T63 C56:T56 C49:T49 C42:T42" xr:uid="{43A5506A-8986-41FF-A5E0-38C68C02B540}">
       <formula1>0</formula1>
       <formula2>6</formula2>
     </dataValidation>

--- a/AF4_conf.xlsx
+++ b/AF4_conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTWork\SCRIPTS\ptaf-pro-conf_ansible-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2448A-0EF8-46F3-A961-C1C90D0EFC99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E92204-E0E2-41FC-8696-780CAAFFD9D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="11745" xr2:uid="{BDDD9177-F6CF-42C1-B99E-562E59E75EA2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="758">
   <si>
     <t>DNS сервера</t>
   </si>
@@ -2137,45 +2137,174 @@
     <t>time.google.com</t>
   </si>
   <si>
+    <t>ptaf-vm1</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>bond0_mode</t>
+  </si>
+  <si>
+    <t>Grafana (VIP-ы не должны быть в CLUSTER подсети)</t>
+  </si>
+  <si>
+    <t>UI (VIP-ы не должны быть в CLUSTER подсети)</t>
+  </si>
+  <si>
+    <t>Подключение агентов (VIP-ы не должны быть в CLUSTER подсети)</t>
+  </si>
+  <si>
+    <t>bond1_mode</t>
+  </si>
+  <si>
+    <t>bond2_mode</t>
+  </si>
+  <si>
+    <t>bond3_mode</t>
+  </si>
+  <si>
+    <t>Тэг vlan1</t>
+  </si>
+  <si>
+    <t>Тэг vlan2</t>
+  </si>
+  <si>
+    <t>Тэг vlan3</t>
+  </si>
+  <si>
+    <t>Тэг vlan4</t>
+  </si>
+  <si>
+    <t>bond0_int1</t>
+  </si>
+  <si>
+    <t>bond0_int2</t>
+  </si>
+  <si>
+    <t>bond0 интерфейс1</t>
+  </si>
+  <si>
+    <t>bond0 интерфейс2</t>
+  </si>
+  <si>
+    <t>bond1_int1</t>
+  </si>
+  <si>
+    <t>bond1_int2</t>
+  </si>
+  <si>
+    <t>bond1 интерфейс1</t>
+  </si>
+  <si>
+    <t>bond2_int1</t>
+  </si>
+  <si>
+    <t>bond2_int2</t>
+  </si>
+  <si>
+    <t>bond3_int1</t>
+  </si>
+  <si>
+    <t>bond3_int2</t>
+  </si>
+  <si>
+    <t>bond0_tag1</t>
+  </si>
+  <si>
+    <t>bond0_tag2</t>
+  </si>
+  <si>
+    <t>bond0_tag3</t>
+  </si>
+  <si>
+    <t>bond0_tag4</t>
+  </si>
+  <si>
+    <t>bond1_tag1</t>
+  </si>
+  <si>
+    <t>bond1_tag2</t>
+  </si>
+  <si>
+    <t>bond1_tag3</t>
+  </si>
+  <si>
+    <t>bond1_tag4</t>
+  </si>
+  <si>
+    <t>bond2_tag1</t>
+  </si>
+  <si>
+    <t>bond2_tag2</t>
+  </si>
+  <si>
+    <t>bond2_tag3</t>
+  </si>
+  <si>
+    <t>bond2_tag4</t>
+  </si>
+  <si>
+    <t>bond3_tag1</t>
+  </si>
+  <si>
+    <t>bond3_tag2</t>
+  </si>
+  <si>
+    <t>bond3_tag3</t>
+  </si>
+  <si>
+    <t>bond3_tag4</t>
+  </si>
+  <si>
+    <t>bond2 интерфейс1</t>
+  </si>
+  <si>
+    <t>bond3 интерфейс1</t>
+  </si>
+  <si>
+    <t>bond2 интерфейс2</t>
+  </si>
+  <si>
+    <t>bond3 интерфейс2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужны бонды? </t>
+  </si>
+  <si>
+    <t>Режим бонда (0 — round-robin; 1 — active-backup); 2 — balance-xor; 3 — broadcast; 4 — 802.3ad; 5 — balance-tlb; 6 — balance-alb.)</t>
+  </si>
+  <si>
+    <t>bond1 интерфейс2</t>
+  </si>
+  <si>
+    <t>ptaf-vm2</t>
+  </si>
+  <si>
+    <t>ptaf-vm3</t>
+  </si>
+  <si>
+    <t>172.16.10.11</t>
+  </si>
+  <si>
+    <t>172.16.10.12</t>
+  </si>
+  <si>
+    <t>192.168.88.171</t>
+  </si>
+  <si>
+    <t>192.168.88.172</t>
+  </si>
+  <si>
+    <t>192.168.88.173</t>
+  </si>
+  <si>
+    <t>192.168.88.1</t>
+  </si>
+  <si>
     <t>8.8.8.8</t>
   </si>
   <si>
-    <t>172.16.10.11</t>
-  </si>
-  <si>
-    <t>172.16.10.12</t>
-  </si>
-  <si>
-    <t>ptaf-vm1</t>
-  </si>
-  <si>
-    <t>ptaf-vm2</t>
-  </si>
-  <si>
-    <t>ptaf-vm3</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>2.2.2.2</t>
-  </si>
-  <si>
-    <t>192.168.88.171</t>
-  </si>
-  <si>
-    <t>192.168.88.172</t>
-  </si>
-  <si>
-    <t>192.168.88.173</t>
-  </si>
-  <si>
-    <t>192.168.88.1</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
     <t>192.168.88.170</t>
   </si>
   <si>
@@ -2183,147 +2312,6 @@
   </si>
   <si>
     <t>ens19</t>
-  </si>
-  <si>
-    <t>bond0_mode</t>
-  </si>
-  <si>
-    <t>Grafana (VIP-ы не должны быть в CLUSTER подсети)</t>
-  </si>
-  <si>
-    <t>UI (VIP-ы не должны быть в CLUSTER подсети)</t>
-  </si>
-  <si>
-    <t>Подключение агентов (VIP-ы не должны быть в CLUSTER подсети)</t>
-  </si>
-  <si>
-    <t>bond1_mode</t>
-  </si>
-  <si>
-    <t>bond2_mode</t>
-  </si>
-  <si>
-    <t>bond3_mode</t>
-  </si>
-  <si>
-    <t>Тэг vlan1</t>
-  </si>
-  <si>
-    <t>Тэг vlan2</t>
-  </si>
-  <si>
-    <t>Тэг vlan3</t>
-  </si>
-  <si>
-    <t>Тэг vlan4</t>
-  </si>
-  <si>
-    <t>bond0_int1</t>
-  </si>
-  <si>
-    <t>bond0_int2</t>
-  </si>
-  <si>
-    <t>bond0 интерфейс1</t>
-  </si>
-  <si>
-    <t>bond0 интерфейс2</t>
-  </si>
-  <si>
-    <t>bond1_int1</t>
-  </si>
-  <si>
-    <t>bond1_int2</t>
-  </si>
-  <si>
-    <t>bond1 интерфейс1</t>
-  </si>
-  <si>
-    <t>bond2_int1</t>
-  </si>
-  <si>
-    <t>bond2_int2</t>
-  </si>
-  <si>
-    <t>bond3_int1</t>
-  </si>
-  <si>
-    <t>bond3_int2</t>
-  </si>
-  <si>
-    <t>bond0_tag1</t>
-  </si>
-  <si>
-    <t>bond0_tag2</t>
-  </si>
-  <si>
-    <t>bond0_tag3</t>
-  </si>
-  <si>
-    <t>bond0_tag4</t>
-  </si>
-  <si>
-    <t>bond1_tag1</t>
-  </si>
-  <si>
-    <t>bond1_tag2</t>
-  </si>
-  <si>
-    <t>bond1_tag3</t>
-  </si>
-  <si>
-    <t>bond1_tag4</t>
-  </si>
-  <si>
-    <t>bond2_tag1</t>
-  </si>
-  <si>
-    <t>bond2_tag2</t>
-  </si>
-  <si>
-    <t>bond2_tag3</t>
-  </si>
-  <si>
-    <t>bond2_tag4</t>
-  </si>
-  <si>
-    <t>bond3_tag1</t>
-  </si>
-  <si>
-    <t>bond3_tag2</t>
-  </si>
-  <si>
-    <t>bond3_tag3</t>
-  </si>
-  <si>
-    <t>bond3_tag4</t>
-  </si>
-  <si>
-    <t>bond2 интерфейс1</t>
-  </si>
-  <si>
-    <t>bond3 интерфейс1</t>
-  </si>
-  <si>
-    <t>bond2 интерфейс2</t>
-  </si>
-  <si>
-    <t>bond3 интерфейс2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нужны бонды? </t>
-  </si>
-  <si>
-    <t>Режим бонда (0 — round-robin; 1 — active-backup); 2 — balance-xor; 3 — broadcast; 4 — 802.3ad; 5 — balance-tlb; 6 — balance-alb.)</t>
-  </si>
-  <si>
-    <t>bond1 интерфейс2</t>
-  </si>
-  <si>
-    <t>bond0</t>
-  </si>
-  <si>
-    <t>bond1</t>
   </si>
 </sst>
 </file>
@@ -2926,9 +2914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC04E1-6663-4A2B-96A2-6DC7EB085CB3}">
   <dimension ref="A1:AP594"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3065,13 +3053,13 @@
         <v>63</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -3103,13 +3091,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -3141,13 +3129,13 @@
         <v>678</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -3175,13 +3163,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>708</v>
+        <v>751</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -3241,13 +3229,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -3344,13 +3332,13 @@
         <v>679</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>681</v>
+        <v>757</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -3380,10 +3368,10 @@
         <v>697</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>701</v>
+        <v>749</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -3992,14 +3980,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>699</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>705</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>706</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
       <c r="AA33" t="s">
         <v>46</v>
       </c>
@@ -4012,13 +3996,13 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>712</v>
+      <c r="C34" s="33" t="s">
+        <v>755</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -4038,13 +4022,13 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="D35" s="10"/>
       <c r="F35" s="26" t="str">
@@ -4057,13 +4041,13 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -4112,7 +4096,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>694</v>
@@ -4129,10 +4113,10 @@
     </row>
     <row r="40" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -4164,10 +4148,10 @@
     </row>
     <row r="41" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -4196,10 +4180,10 @@
     </row>
     <row r="42" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
@@ -4231,10 +4215,10 @@
     </row>
     <row r="43" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -4266,10 +4250,10 @@
     </row>
     <row r="44" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
@@ -4301,10 +4285,10 @@
     </row>
     <row r="45" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
@@ -4336,10 +4320,10 @@
     </row>
     <row r="46" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -4371,10 +4355,10 @@
     </row>
     <row r="47" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
@@ -4406,10 +4390,10 @@
     </row>
     <row r="48" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="C48" s="40"/>
       <c r="D48" s="40"/>
@@ -4441,10 +4425,10 @@
     </row>
     <row r="49" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
@@ -4470,10 +4454,10 @@
     </row>
     <row r="50" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="40"/>
@@ -4499,10 +4483,10 @@
     </row>
     <row r="51" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
@@ -4528,10 +4512,10 @@
     </row>
     <row r="52" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
@@ -4557,10 +4541,10 @@
     </row>
     <row r="53" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
@@ -4586,10 +4570,10 @@
     </row>
     <row r="54" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
@@ -4615,10 +4599,10 @@
     </row>
     <row r="55" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
@@ -4644,10 +4628,10 @@
     </row>
     <row r="56" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
@@ -4673,10 +4657,10 @@
     </row>
     <row r="57" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
@@ -4702,10 +4686,10 @@
     </row>
     <row r="58" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
@@ -4731,10 +4715,10 @@
     </row>
     <row r="59" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
@@ -4760,10 +4744,10 @@
     </row>
     <row r="60" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
@@ -4789,10 +4773,10 @@
     </row>
     <row r="61" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="40"/>
@@ -4818,10 +4802,10 @@
     </row>
     <row r="62" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
@@ -4847,10 +4831,10 @@
     </row>
     <row r="63" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
@@ -4876,10 +4860,10 @@
     </row>
     <row r="64" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
@@ -4905,10 +4889,10 @@
     </row>
     <row r="65" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
@@ -4934,10 +4918,10 @@
     </row>
     <row r="66" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="C66" s="40"/>
       <c r="D66" s="40"/>
@@ -4963,10 +4947,10 @@
     </row>
     <row r="67" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C67" s="40"/>
       <c r="D67" s="40"/>
@@ -7631,16 +7615,16 @@
   </sortState>
   <dataConsolidate/>
   <dataValidations count="15">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="IP address" error="Please enter correct IP address" sqref="D33:E33 Y12 Y14 Y6 C26:Y26 Y20 Y8 C20:T20 Y18 C24:Y24 C8:T8 C18:T18 C31:E31 C14:T14 C12:T12 C6:T6 C33:C36" xr:uid="{F4A9DD59-10E1-4570-A620-994D614F80F3}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="IP address" error="Please enter correct IP address" sqref="D33:E33 Y12 Y14 Y6 C26:Y26 Y20 Y8 C20:T20 Y18 C24:Y24 C12:T12 C18:T18 C31:E31 C14:T14 C6:T6 C8:T8 C33:C36" xr:uid="{F4A9DD59-10E1-4570-A620-994D614F80F3}">
       <formula1>AND(LEN(C6)-LEN(SUBSTITUTE(C6,".",""))=3,--LEFT(C6,FIND(".",C6)-1)&lt;224,--LEFT(C6,FIND(".",C6)-1)&gt;0,--MID(SUBSTITUTE(C6,".","    "),6,5)&lt;256,--MID(SUBSTITUTE(C6,".","      "),15,7)&lt;256,--MID(SUBSTITUTE(C6,".","      "),22,10)&lt;256)</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Netmask" error="Please enter correct netmask" sqref="Y7 C25:Y25 Y19 Y13 C7:T7 C19:T19 C13:T13" xr:uid="{A53661DA-36E4-4B74-A278-B7516EFEA0F7}">
       <formula1>AND(LEN(C7)-LEN(SUBSTITUTE(C7,".",""))=3,--LEFT(C7,FIND(".",C7)-1)&lt;256,--LEFT(C7,FIND(".",C7)-1)&gt;0,--MID(SUBSTITUTE(C7,".","    "),6,5)&lt;256,--MID(SUBSTITUTE(C7,".","      "),15,7)&lt;256,--MID(SUBSTITUTE(C7,".","      "),22,10)&lt;256)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9 C27:Y27 Y21 Y15 C21:T21 C15:T15 C9:T9" xr:uid="{DC81CD85-3F94-40CD-B28A-B7045572A454}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9 C27:Y27 Y21 Y15 C21:T21 C9:T9 C15:T15" xr:uid="{DC81CD85-3F94-40CD-B28A-B7045572A454}">
       <formula1>$AA$31:$AA$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y16:Y17 Y22:Y23 Y10:Y11 C28:Y28 C22:T22 C16:T16 C10:T10" xr:uid="{67254EA8-B30E-4C33-9A6E-E36F6614BE2B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y16:Y17 Y22:Y23 Y10:Y11 C28:Y28 C22:T22 C10:T10 C16:T16" xr:uid="{67254EA8-B30E-4C33-9A6E-E36F6614BE2B}">
       <formula1>$AA$36:$AA$37</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:T29" xr:uid="{8F4CC75D-0DB7-447A-A061-870AE6B3FAB9}">
@@ -7678,12 +7662,11 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{75094916-C9E8-45BD-81BC-515462435568}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{C776F13A-B8A8-4E0B-92A7-412E45BCF637}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{151511E1-952D-4A9F-A2B7-5229FDB36300}"/>
+    <hyperlink ref="D3:E3" r:id="rId2" display="P@ssw0rd" xr:uid="{31D6CA04-2191-4E38-A33D-DAD2D726D26A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/AF4_conf.xlsx
+++ b/AF4_conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTWork\SCRIPTS\ptaf-pro-conf_ansible\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF2BCBC-9946-4CFD-8981-933A579EF47F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8272A32-DBD7-4BC1-B40C-883A5FB0ACC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="11745" xr2:uid="{BDDD9177-F6CF-42C1-B99E-562E59E75EA2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="786">
   <si>
     <t>DNS сервера</t>
   </si>
@@ -2294,9 +2294,6 @@
     <t>8.8.8.8</t>
   </si>
   <si>
-    <t>192.168.88.170</t>
-  </si>
-  <si>
     <t>Роли ноды</t>
   </si>
   <si>
@@ -2360,162 +2357,12 @@
     <t>ptaf-vm5</t>
   </si>
   <si>
-    <t>ptaf-vm6</t>
-  </si>
-  <si>
-    <t>ptaf-vm7</t>
-  </si>
-  <si>
-    <t>ptaf-vm8</t>
-  </si>
-  <si>
-    <t>ptaf-vm9</t>
-  </si>
-  <si>
-    <t>ptaf-vm10</t>
-  </si>
-  <si>
-    <t>ptaf-vm11</t>
-  </si>
-  <si>
-    <t>ptaf-vm12</t>
-  </si>
-  <si>
-    <t>ptaf-vm13</t>
-  </si>
-  <si>
-    <t>ptaf-vm14</t>
-  </si>
-  <si>
-    <t>ptaf-vm15</t>
-  </si>
-  <si>
-    <t>ptaf-vm16</t>
-  </si>
-  <si>
-    <t>ptaf-vm17</t>
-  </si>
-  <si>
-    <t>ptaf-vm18</t>
-  </si>
-  <si>
-    <t>ptaf-vm19</t>
-  </si>
-  <si>
-    <t>ptaf-vm20</t>
-  </si>
-  <si>
-    <t>ptaf-vm21</t>
-  </si>
-  <si>
-    <t>ptaf-vm22</t>
-  </si>
-  <si>
-    <t>ptaf-vm23</t>
-  </si>
-  <si>
-    <t>ptaf-vm24</t>
-  </si>
-  <si>
-    <t>ptaf-vm25</t>
-  </si>
-  <si>
-    <t>ptaf-vm26</t>
-  </si>
-  <si>
-    <t>ptaf-vm27</t>
-  </si>
-  <si>
-    <t>ptaf-vm28</t>
-  </si>
-  <si>
-    <t>ptaf-vm29</t>
-  </si>
-  <si>
-    <t>ptaf-vm30</t>
-  </si>
-  <si>
     <t>192.168.88.174</t>
   </si>
   <si>
     <t>192.168.88.175</t>
   </si>
   <si>
-    <t>192.168.88.176</t>
-  </si>
-  <si>
-    <t>192.168.88.177</t>
-  </si>
-  <si>
-    <t>192.168.88.178</t>
-  </si>
-  <si>
-    <t>192.168.88.179</t>
-  </si>
-  <si>
-    <t>192.168.88.180</t>
-  </si>
-  <si>
-    <t>192.168.88.181</t>
-  </si>
-  <si>
-    <t>192.168.88.182</t>
-  </si>
-  <si>
-    <t>192.168.88.183</t>
-  </si>
-  <si>
-    <t>192.168.88.184</t>
-  </si>
-  <si>
-    <t>192.168.88.185</t>
-  </si>
-  <si>
-    <t>192.168.88.186</t>
-  </si>
-  <si>
-    <t>192.168.88.187</t>
-  </si>
-  <si>
-    <t>192.168.88.188</t>
-  </si>
-  <si>
-    <t>192.168.88.189</t>
-  </si>
-  <si>
-    <t>192.168.88.190</t>
-  </si>
-  <si>
-    <t>192.168.88.191</t>
-  </si>
-  <si>
-    <t>192.168.88.192</t>
-  </si>
-  <si>
-    <t>192.168.88.193</t>
-  </si>
-  <si>
-    <t>192.168.88.194</t>
-  </si>
-  <si>
-    <t>192.168.88.195</t>
-  </si>
-  <si>
-    <t>192.168.88.196</t>
-  </si>
-  <si>
-    <t>192.168.88.197</t>
-  </si>
-  <si>
-    <t>192.168.88.198</t>
-  </si>
-  <si>
-    <t>192.168.88.199</t>
-  </si>
-  <si>
-    <t>192.168.88.200</t>
-  </si>
-  <si>
     <t>192.168.80.2</t>
   </si>
   <si>
@@ -2537,84 +2384,6 @@
     <t>192.168.80.7</t>
   </si>
   <si>
-    <t>192.168.80.8</t>
-  </si>
-  <si>
-    <t>192.168.80.9</t>
-  </si>
-  <si>
-    <t>192.168.80.10</t>
-  </si>
-  <si>
-    <t>192.168.80.11</t>
-  </si>
-  <si>
-    <t>192.168.80.12</t>
-  </si>
-  <si>
-    <t>192.168.80.13</t>
-  </si>
-  <si>
-    <t>192.168.80.14</t>
-  </si>
-  <si>
-    <t>192.168.80.15</t>
-  </si>
-  <si>
-    <t>192.168.80.16</t>
-  </si>
-  <si>
-    <t>192.168.80.17</t>
-  </si>
-  <si>
-    <t>192.168.80.18</t>
-  </si>
-  <si>
-    <t>192.168.80.19</t>
-  </si>
-  <si>
-    <t>192.168.80.20</t>
-  </si>
-  <si>
-    <t>192.168.80.21</t>
-  </si>
-  <si>
-    <t>192.168.80.22</t>
-  </si>
-  <si>
-    <t>192.168.80.23</t>
-  </si>
-  <si>
-    <t>192.168.80.24</t>
-  </si>
-  <si>
-    <t>192.168.80.25</t>
-  </si>
-  <si>
-    <t>192.168.80.26</t>
-  </si>
-  <si>
-    <t>192.168.80.27</t>
-  </si>
-  <si>
-    <t>192.168.80.28</t>
-  </si>
-  <si>
-    <t>192.168.80.29</t>
-  </si>
-  <si>
-    <t>192.168.80.30</t>
-  </si>
-  <si>
-    <t>192.168.80.31</t>
-  </si>
-  <si>
-    <t>bond0.123</t>
-  </si>
-  <si>
-    <t>bond1.123</t>
-  </si>
-  <si>
     <t>192.168.70.174</t>
   </si>
   <si>
@@ -2627,157 +2396,7 @@
     <t>192.168.100.175</t>
   </si>
   <si>
-    <t>192.168.100.176</t>
-  </si>
-  <si>
-    <t>192.168.100.177</t>
-  </si>
-  <si>
-    <t>192.168.100.178</t>
-  </si>
-  <si>
-    <t>192.168.100.179</t>
-  </si>
-  <si>
-    <t>192.168.100.180</t>
-  </si>
-  <si>
-    <t>192.168.100.181</t>
-  </si>
-  <si>
-    <t>192.168.100.182</t>
-  </si>
-  <si>
-    <t>192.168.100.183</t>
-  </si>
-  <si>
-    <t>192.168.100.184</t>
-  </si>
-  <si>
-    <t>192.168.100.185</t>
-  </si>
-  <si>
-    <t>192.168.100.186</t>
-  </si>
-  <si>
-    <t>192.168.100.187</t>
-  </si>
-  <si>
-    <t>192.168.100.188</t>
-  </si>
-  <si>
-    <t>192.168.100.189</t>
-  </si>
-  <si>
-    <t>192.168.100.190</t>
-  </si>
-  <si>
-    <t>192.168.100.191</t>
-  </si>
-  <si>
-    <t>192.168.100.192</t>
-  </si>
-  <si>
-    <t>192.168.100.193</t>
-  </si>
-  <si>
-    <t>192.168.100.194</t>
-  </si>
-  <si>
-    <t>192.168.100.195</t>
-  </si>
-  <si>
-    <t>192.168.100.196</t>
-  </si>
-  <si>
-    <t>192.168.100.197</t>
-  </si>
-  <si>
-    <t>192.168.100.198</t>
-  </si>
-  <si>
-    <t>192.168.100.199</t>
-  </si>
-  <si>
-    <t>192.168.100.200</t>
-  </si>
-  <si>
     <t>192.168.70.175</t>
-  </si>
-  <si>
-    <t>192.168.70.176</t>
-  </si>
-  <si>
-    <t>192.168.70.177</t>
-  </si>
-  <si>
-    <t>192.168.70.178</t>
-  </si>
-  <si>
-    <t>192.168.70.179</t>
-  </si>
-  <si>
-    <t>192.168.70.180</t>
-  </si>
-  <si>
-    <t>192.168.70.181</t>
-  </si>
-  <si>
-    <t>192.168.70.182</t>
-  </si>
-  <si>
-    <t>192.168.70.183</t>
-  </si>
-  <si>
-    <t>192.168.70.184</t>
-  </si>
-  <si>
-    <t>192.168.70.185</t>
-  </si>
-  <si>
-    <t>192.168.70.186</t>
-  </si>
-  <si>
-    <t>192.168.70.187</t>
-  </si>
-  <si>
-    <t>192.168.70.188</t>
-  </si>
-  <si>
-    <t>192.168.70.189</t>
-  </si>
-  <si>
-    <t>192.168.70.190</t>
-  </si>
-  <si>
-    <t>192.168.70.191</t>
-  </si>
-  <si>
-    <t>192.168.70.192</t>
-  </si>
-  <si>
-    <t>192.168.70.193</t>
-  </si>
-  <si>
-    <t>192.168.70.194</t>
-  </si>
-  <si>
-    <t>192.168.70.195</t>
-  </si>
-  <si>
-    <t>192.168.70.196</t>
-  </si>
-  <si>
-    <t>192.168.70.197</t>
-  </si>
-  <si>
-    <t>192.168.70.198</t>
-  </si>
-  <si>
-    <t>192.168.70.199</t>
-  </si>
-  <si>
-    <t>192.168.70.200</t>
   </si>
 </sst>
 </file>
@@ -3492,8 +3111,8 @@
   <dimension ref="A1:AP594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3583,44 +3202,44 @@
         <v>676</v>
       </c>
       <c r="U1" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="AF1" s="6" t="s">
-        <v>770</v>
-      </c>
       <c r="AP1" s="31"/>
     </row>
-    <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -3642,81 +3261,31 @@
       <c r="G2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
       <c r="AP2" s="31"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -3741,81 +3310,31 @@
       <c r="G3" s="29" t="s">
         <v>699</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="AF3" s="29" t="s">
-        <v>699</v>
-      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
       <c r="AP3" s="31"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -3835,86 +3354,36 @@
         <v>746</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>787</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>790</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="AD4" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="AF4" s="14" t="s">
-        <v>797</v>
-      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
       <c r="AP4" s="31"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -3925,95 +3394,45 @@
         <v>678</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>856</v>
+        <v>680</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>856</v>
+        <v>680</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>856</v>
+        <v>680</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>856</v>
+        <v>680</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="V5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="W5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="Z5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="AA5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="AB5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="AC5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="AE5" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="AF5" s="33" t="s">
-        <v>856</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
       <c r="AP5" s="31"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -4024,95 +3443,45 @@
         <v>9</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>825</v>
+        <v>774</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>827</v>
+        <v>776</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>828</v>
+        <v>777</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>829</v>
+        <v>778</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>832</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>833</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>834</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>835</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>836</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>838</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>840</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>841</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>842</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>843</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>844</v>
-      </c>
-      <c r="V6" s="32" t="s">
-        <v>845</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>846</v>
-      </c>
-      <c r="X6" s="32" t="s">
-        <v>847</v>
-      </c>
-      <c r="Y6" s="32" t="s">
-        <v>848</v>
-      </c>
-      <c r="Z6" s="32" t="s">
-        <v>849</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>850</v>
-      </c>
-      <c r="AB6" s="32" t="s">
-        <v>851</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD6" s="32" t="s">
-        <v>853</v>
-      </c>
-      <c r="AE6" s="32" t="s">
-        <v>854</v>
-      </c>
-      <c r="AF6" s="32" t="s">
-        <v>855</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
       <c r="AP6" s="31"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -4137,81 +3506,31 @@
       <c r="G7" s="32" t="s">
         <v>696</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="V7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="W7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="X7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AB7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AD7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AE7" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF7" s="32" t="s">
-        <v>696</v>
-      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
       <c r="AP7" s="31"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -4220,95 +3539,45 @@
         <v>11</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>826</v>
+        <v>775</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>826</v>
+        <v>775</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>826</v>
+        <v>775</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>826</v>
+        <v>775</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="T8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="U8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="V8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="W8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="X8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="Y8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="Z8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="AA8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="AB8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="AC8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="AD8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE8" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="AF8" s="32" t="s">
-        <v>826</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
       <c r="AP8" s="31"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -4333,81 +3602,31 @@
       <c r="G9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF9" s="32" t="s">
-        <v>33</v>
-      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
       <c r="AP9" s="31"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -4432,81 +3651,31 @@
       <c r="G10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="V10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="W10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="X10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF10" s="33" t="s">
-        <v>53</v>
-      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
       <c r="AP10" s="31"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -4517,95 +3686,45 @@
         <v>679</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>857</v>
+        <v>681</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>857</v>
+        <v>681</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>857</v>
+        <v>681</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>857</v>
+        <v>681</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="X11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="Y11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="AA11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="AB11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="AF11" s="20" t="s">
-        <v>857</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
       <c r="AP11" s="31"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -4625,86 +3744,36 @@
         <v>749</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>802</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>806</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>809</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>823</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>824</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
       <c r="AP12" s="31"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -4729,81 +3798,31 @@
       <c r="G13" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AB13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AD13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AE13" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF13" s="12" t="s">
-        <v>696</v>
-      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
       <c r="AP13" s="31"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -4865,81 +3884,31 @@
       <c r="G15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF15" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
       <c r="AP15" s="31"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -4964,81 +3933,31 @@
       <c r="G16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="S16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="T16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="V16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="W16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="X16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF16" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
       <c r="AP16" s="31"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -5057,81 +3976,31 @@
       <c r="G17" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="N17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="R17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="T17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="U17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="V17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="W17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="X17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="Y17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="Z17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="AA17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="AB17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="AC17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="AD17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="AE17" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="AF17" s="33" t="s">
-        <v>685</v>
-      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
       <c r="AP17" s="31"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -5145,86 +4014,36 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
-        <v>858</v>
+        <v>781</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>887</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>888</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>889</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>890</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>891</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>892</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>893</v>
-      </c>
-      <c r="N18" s="32" t="s">
-        <v>894</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>895</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>896</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>897</v>
-      </c>
-      <c r="R18" s="32" t="s">
-        <v>898</v>
-      </c>
-      <c r="S18" s="32" t="s">
-        <v>899</v>
-      </c>
-      <c r="T18" s="32" t="s">
-        <v>900</v>
-      </c>
-      <c r="U18" s="32" t="s">
-        <v>901</v>
-      </c>
-      <c r="V18" s="32" t="s">
-        <v>902</v>
-      </c>
-      <c r="W18" s="32" t="s">
-        <v>903</v>
-      </c>
-      <c r="X18" s="32" t="s">
-        <v>904</v>
-      </c>
-      <c r="Y18" s="32" t="s">
-        <v>905</v>
-      </c>
-      <c r="Z18" s="32" t="s">
-        <v>906</v>
-      </c>
-      <c r="AA18" s="32" t="s">
-        <v>907</v>
-      </c>
-      <c r="AB18" s="32" t="s">
-        <v>908</v>
-      </c>
-      <c r="AC18" s="32" t="s">
-        <v>909</v>
-      </c>
-      <c r="AD18" s="32" t="s">
-        <v>910</v>
-      </c>
-      <c r="AE18" s="32" t="s">
-        <v>911</v>
-      </c>
-      <c r="AF18" s="32" t="s">
-        <v>912</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
       <c r="AP18" s="31"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -5243,81 +4062,31 @@
       <c r="G19" s="32" t="s">
         <v>696</v>
       </c>
-      <c r="H19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="L19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="N19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="O19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="T19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="U19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="V19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="W19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="X19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AB19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AC19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AD19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AE19" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF19" s="32" t="s">
-        <v>696</v>
-      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
       <c r="AP19" s="31"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
@@ -5329,86 +4098,36 @@
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
-        <v>859</v>
+        <v>782</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="N20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="R20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="S20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="T20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="U20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="V20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="W20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="X20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="Y20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="Z20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="AA20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="AB20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="AC20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="AD20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="AE20" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="AF20" s="32" t="s">
-        <v>859</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
       <c r="AP20" s="31"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
@@ -5427,81 +4146,31 @@
       <c r="G21" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="R21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="U21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="V21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="W21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="X21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF21" s="32" t="s">
-        <v>46</v>
-      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
       <c r="AP21" s="31"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
@@ -5520,81 +4189,31 @@
       <c r="G22" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="S22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="T22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="V22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="W22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="X22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF22" s="33" t="s">
-        <v>53</v>
-      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
       <c r="AP22" s="31"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
@@ -5613,81 +4232,31 @@
       <c r="G23" s="20" t="s">
         <v>687</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="R23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="T23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="U23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="V23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="W23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="X23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="Y23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="Z23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="AA23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="AB23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="AC23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="AD23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="AE23" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="AF23" s="20" t="s">
-        <v>687</v>
-      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
       <c r="AP23" s="31"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
@@ -5701,86 +4270,36 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>860</v>
+        <v>783</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>862</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>863</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>864</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>866</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>867</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>869</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>870</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>872</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>875</v>
-      </c>
-      <c r="V24" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>877</v>
-      </c>
-      <c r="X24" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="Y24" s="12" t="s">
-        <v>879</v>
-      </c>
-      <c r="Z24" s="12" t="s">
-        <v>880</v>
-      </c>
-      <c r="AA24" s="12" t="s">
-        <v>881</v>
-      </c>
-      <c r="AB24" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="AC24" s="12" t="s">
-        <v>883</v>
-      </c>
-      <c r="AD24" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="AE24" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="AF24" s="12" t="s">
-        <v>886</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
       <c r="AP24" s="31"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
@@ -5799,81 +4318,31 @@
       <c r="G25" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AB25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AC25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AD25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AE25" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF25" s="12" t="s">
-        <v>696</v>
-      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
       <c r="AP25" s="31"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
@@ -5929,81 +4398,31 @@
       <c r="G27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="W27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="X27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF27" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
       <c r="AP27" s="31"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -6022,81 +4441,31 @@
       <c r="G28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="R28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="T28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="U28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="V28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="X28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF28" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
       <c r="AP28" s="31"/>
     </row>
     <row r="29" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,81 +4490,31 @@
       <c r="G29" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="R29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="S29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="T29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="U29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="V29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="W29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="X29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF29" s="32" t="s">
-        <v>33</v>
-      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
       <c r="AP29" s="31"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
@@ -6264,13 +4583,13 @@
         <v>20</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="25" t="str">
         <f>"https://" &amp; C34 &amp; ":3000"</f>
-        <v>https://192.168.88.170:3000</v>
+        <v>https://192.168.80.7:3000</v>
       </c>
       <c r="AB34" s="18"/>
       <c r="AP34" s="31"/>
@@ -6283,12 +4602,12 @@
         <v>21</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="D35" s="10"/>
       <c r="F35" s="25" t="str">
         <f>"https://" &amp;C35</f>
-        <v>https://192.168.88.170</v>
+        <v>https://192.168.80.7</v>
       </c>
       <c r="AP35" s="31"/>
     </row>
@@ -6300,13 +4619,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="25" t="str">
         <f>"https://" &amp;C36&amp;":8443"</f>
-        <v>https://192.168.88.170:8443</v>
+        <v>https://192.168.80.7:8443</v>
       </c>
       <c r="AP36" s="31"/>
     </row>
@@ -6335,11 +4654,11 @@
         <v>742</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AP39" s="31"/>
     </row>
-    <row r="40" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>713</v>
       </c>
@@ -6361,84 +4680,34 @@
       <c r="G40" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="H40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="K40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="L40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="M40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="N40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="O40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="P40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="R40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="S40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="T40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="U40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="V40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="W40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="X40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="Y40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="Z40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="AC40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="AD40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="AE40" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="AF40" s="37" t="s">
-        <v>680</v>
-      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
       <c r="AP40" s="31"/>
     </row>
-    <row r="41" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>714</v>
       </c>
@@ -6460,84 +4729,34 @@
       <c r="G41" s="37" t="s">
         <v>681</v>
       </c>
-      <c r="H41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="K41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="M41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="N41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="O41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="P41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="R41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="S41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="T41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="U41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="V41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="W41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="X41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="Y41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="Z41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="AA41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="AB41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="AC41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="AD41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="AE41" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="AF41" s="37" t="s">
-        <v>681</v>
-      </c>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
       <c r="AP41" s="31"/>
     </row>
-    <row r="42" spans="1:42" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>743</v>
       </c>
@@ -6559,84 +4778,34 @@
       <c r="G42" s="37">
         <v>0</v>
       </c>
-      <c r="H42" s="37">
-        <v>0</v>
-      </c>
-      <c r="I42" s="37">
-        <v>0</v>
-      </c>
-      <c r="J42" s="37">
-        <v>0</v>
-      </c>
-      <c r="K42" s="37">
-        <v>0</v>
-      </c>
-      <c r="L42" s="37">
-        <v>0</v>
-      </c>
-      <c r="M42" s="37">
-        <v>0</v>
-      </c>
-      <c r="N42" s="37">
-        <v>0</v>
-      </c>
-      <c r="O42" s="37">
-        <v>0</v>
-      </c>
-      <c r="P42" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="37">
-        <v>0</v>
-      </c>
-      <c r="R42" s="37">
-        <v>0</v>
-      </c>
-      <c r="S42" s="37">
-        <v>0</v>
-      </c>
-      <c r="T42" s="37">
-        <v>0</v>
-      </c>
-      <c r="U42" s="37">
-        <v>0</v>
-      </c>
-      <c r="V42" s="37">
-        <v>0</v>
-      </c>
-      <c r="W42" s="37">
-        <v>0</v>
-      </c>
-      <c r="X42" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="37">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="37">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="37">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="37">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="37">
-        <v>0</v>
-      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
       <c r="AP42" s="31"/>
     </row>
-    <row r="43" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>707</v>
       </c>
@@ -6658,84 +4827,34 @@
       <c r="G43" s="37">
         <v>123</v>
       </c>
-      <c r="H43" s="37">
-        <v>123</v>
-      </c>
-      <c r="I43" s="37">
-        <v>123</v>
-      </c>
-      <c r="J43" s="37">
-        <v>123</v>
-      </c>
-      <c r="K43" s="37">
-        <v>123</v>
-      </c>
-      <c r="L43" s="37">
-        <v>123</v>
-      </c>
-      <c r="M43" s="37">
-        <v>123</v>
-      </c>
-      <c r="N43" s="37">
-        <v>123</v>
-      </c>
-      <c r="O43" s="37">
-        <v>123</v>
-      </c>
-      <c r="P43" s="37">
-        <v>123</v>
-      </c>
-      <c r="Q43" s="37">
-        <v>123</v>
-      </c>
-      <c r="R43" s="37">
-        <v>123</v>
-      </c>
-      <c r="S43" s="37">
-        <v>123</v>
-      </c>
-      <c r="T43" s="37">
-        <v>123</v>
-      </c>
-      <c r="U43" s="37">
-        <v>123</v>
-      </c>
-      <c r="V43" s="37">
-        <v>123</v>
-      </c>
-      <c r="W43" s="37">
-        <v>123</v>
-      </c>
-      <c r="X43" s="37">
-        <v>123</v>
-      </c>
-      <c r="Y43" s="37">
-        <v>123</v>
-      </c>
-      <c r="Z43" s="37">
-        <v>123</v>
-      </c>
-      <c r="AA43" s="37">
-        <v>123</v>
-      </c>
-      <c r="AB43" s="37">
-        <v>123</v>
-      </c>
-      <c r="AC43" s="37">
-        <v>123</v>
-      </c>
-      <c r="AD43" s="37">
-        <v>123</v>
-      </c>
-      <c r="AE43" s="37">
-        <v>123</v>
-      </c>
-      <c r="AF43" s="37">
-        <v>123</v>
-      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
       <c r="AP43" s="31"/>
     </row>
-    <row r="44" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>708</v>
       </c>
@@ -6774,7 +4893,7 @@
       <c r="AF44" s="37"/>
       <c r="AP44" s="31"/>
     </row>
-    <row r="45" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>709</v>
       </c>
@@ -6813,7 +4932,7 @@
       <c r="AF45" s="37"/>
       <c r="AP45" s="31"/>
     </row>
-    <row r="46" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>710</v>
       </c>
@@ -6852,7 +4971,7 @@
       <c r="AF46" s="37"/>
       <c r="AP46" s="31"/>
     </row>
-    <row r="47" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>717</v>
       </c>
@@ -6874,84 +4993,34 @@
       <c r="G47" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="H47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="J47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="K47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="L47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="M47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="N47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="O47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="P47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="R47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="S47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="T47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="U47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="V47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="W47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="X47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="Y47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="Z47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="AB47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="AC47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="AD47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="AE47" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="AF47" s="38" t="s">
-        <v>682</v>
-      </c>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="38"/>
       <c r="AP47" s="31"/>
     </row>
-    <row r="48" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>744</v>
       </c>
@@ -6973,84 +5042,34 @@
       <c r="G48" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="H48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="M48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="N48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="O48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="P48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="R48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="S48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="T48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="U48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="V48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="W48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="X48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="Y48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="Z48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="AA48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="AC48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="AD48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="AE48" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="AF48" s="38" t="s">
-        <v>683</v>
-      </c>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="38"/>
       <c r="AP48" s="31"/>
     </row>
-    <row r="49" spans="1:42" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>743</v>
       </c>
@@ -7072,84 +5091,34 @@
       <c r="G49" s="38">
         <v>1</v>
       </c>
-      <c r="H49" s="38">
-        <v>1</v>
-      </c>
-      <c r="I49" s="38">
-        <v>1</v>
-      </c>
-      <c r="J49" s="38">
-        <v>1</v>
-      </c>
-      <c r="K49" s="38">
-        <v>1</v>
-      </c>
-      <c r="L49" s="38">
-        <v>1</v>
-      </c>
-      <c r="M49" s="38">
-        <v>1</v>
-      </c>
-      <c r="N49" s="38">
-        <v>1</v>
-      </c>
-      <c r="O49" s="38">
-        <v>1</v>
-      </c>
-      <c r="P49" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="38">
-        <v>1</v>
-      </c>
-      <c r="R49" s="38">
-        <v>1</v>
-      </c>
-      <c r="S49" s="38">
-        <v>1</v>
-      </c>
-      <c r="T49" s="38">
-        <v>1</v>
-      </c>
-      <c r="U49" s="38">
-        <v>1</v>
-      </c>
-      <c r="V49" s="38">
-        <v>1</v>
-      </c>
-      <c r="W49" s="38">
-        <v>1</v>
-      </c>
-      <c r="X49" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="38">
-        <v>1</v>
-      </c>
-      <c r="AD49" s="38">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF49" s="38">
-        <v>1</v>
-      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="38"/>
+      <c r="AE49" s="38"/>
+      <c r="AF49" s="38"/>
       <c r="AP49" s="31"/>
     </row>
-    <row r="50" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>707</v>
       </c>
@@ -7171,84 +5140,34 @@
       <c r="G50" s="38">
         <v>123</v>
       </c>
-      <c r="H50" s="38">
-        <v>123</v>
-      </c>
-      <c r="I50" s="38">
-        <v>123</v>
-      </c>
-      <c r="J50" s="38">
-        <v>123</v>
-      </c>
-      <c r="K50" s="38">
-        <v>123</v>
-      </c>
-      <c r="L50" s="38">
-        <v>123</v>
-      </c>
-      <c r="M50" s="38">
-        <v>123</v>
-      </c>
-      <c r="N50" s="38">
-        <v>123</v>
-      </c>
-      <c r="O50" s="38">
-        <v>123</v>
-      </c>
-      <c r="P50" s="38">
-        <v>123</v>
-      </c>
-      <c r="Q50" s="38">
-        <v>123</v>
-      </c>
-      <c r="R50" s="38">
-        <v>123</v>
-      </c>
-      <c r="S50" s="38">
-        <v>123</v>
-      </c>
-      <c r="T50" s="38">
-        <v>123</v>
-      </c>
-      <c r="U50" s="38">
-        <v>123</v>
-      </c>
-      <c r="V50" s="38">
-        <v>123</v>
-      </c>
-      <c r="W50" s="38">
-        <v>123</v>
-      </c>
-      <c r="X50" s="38">
-        <v>123</v>
-      </c>
-      <c r="Y50" s="38">
-        <v>123</v>
-      </c>
-      <c r="Z50" s="38">
-        <v>123</v>
-      </c>
-      <c r="AA50" s="38">
-        <v>123</v>
-      </c>
-      <c r="AB50" s="38">
-        <v>123</v>
-      </c>
-      <c r="AC50" s="38">
-        <v>123</v>
-      </c>
-      <c r="AD50" s="38">
-        <v>123</v>
-      </c>
-      <c r="AE50" s="38">
-        <v>123</v>
-      </c>
-      <c r="AF50" s="38">
-        <v>123</v>
-      </c>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
       <c r="AP50" s="31"/>
     </row>
-    <row r="51" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>708</v>
       </c>
@@ -7287,7 +5206,7 @@
       <c r="AF51" s="38"/>
       <c r="AP51" s="31"/>
     </row>
-    <row r="52" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>709</v>
       </c>
@@ -7326,7 +5245,7 @@
       <c r="AF52" s="38"/>
       <c r="AP52" s="31"/>
     </row>
-    <row r="53" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>710</v>
       </c>
@@ -7365,7 +5284,7 @@
       <c r="AF53" s="38"/>
       <c r="AP53" s="31"/>
     </row>
-    <row r="54" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>738</v>
       </c>
@@ -7404,7 +5323,7 @@
       <c r="AF54" s="37"/>
       <c r="AP54" s="31"/>
     </row>
-    <row r="55" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>740</v>
       </c>
@@ -7443,7 +5362,7 @@
       <c r="AF55" s="37"/>
       <c r="AP55" s="31"/>
     </row>
-    <row r="56" spans="1:42" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>743</v>
       </c>
@@ -7482,7 +5401,7 @@
       <c r="AF56" s="37"/>
       <c r="AP56" s="31"/>
     </row>
-    <row r="57" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>707</v>
       </c>
@@ -7521,7 +5440,7 @@
       <c r="AF57" s="37"/>
       <c r="AP57" s="31"/>
     </row>
-    <row r="58" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>708</v>
       </c>
@@ -7560,7 +5479,7 @@
       <c r="AF58" s="37"/>
       <c r="AP58" s="31"/>
     </row>
-    <row r="59" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>709</v>
       </c>
@@ -7599,7 +5518,7 @@
       <c r="AF59" s="37"/>
       <c r="AP59" s="31"/>
     </row>
-    <row r="60" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>710</v>
       </c>
@@ -7638,7 +5557,7 @@
       <c r="AF60" s="37"/>
       <c r="AP60" s="31"/>
     </row>
-    <row r="61" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>739</v>
       </c>
@@ -7677,7 +5596,7 @@
       <c r="AF61" s="38"/>
       <c r="AP61" s="31"/>
     </row>
-    <row r="62" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>741</v>
       </c>
@@ -7716,7 +5635,7 @@
       <c r="AF62" s="38"/>
       <c r="AP62" s="31"/>
     </row>
-    <row r="63" spans="1:42" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>743</v>
       </c>
@@ -7755,7 +5674,7 @@
       <c r="AF63" s="38"/>
       <c r="AP63" s="31"/>
     </row>
-    <row r="64" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>707</v>
       </c>
@@ -7794,7 +5713,7 @@
       <c r="AF64" s="38"/>
       <c r="AP64" s="31"/>
     </row>
-    <row r="65" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>708</v>
       </c>
@@ -7833,7 +5752,7 @@
       <c r="AF65" s="38"/>
       <c r="AP65" s="31"/>
     </row>
-    <row r="66" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>709</v>
       </c>
@@ -7872,7 +5791,7 @@
       <c r="AF66" s="38"/>
       <c r="AP66" s="31"/>
     </row>
-    <row r="67" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>710</v>
       </c>
@@ -7911,7 +5830,7 @@
       <c r="AF67" s="38"/>
       <c r="AP67" s="31"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" collapsed="1" x14ac:dyDescent="0.25">
       <c r="AP68" s="31"/>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
@@ -9498,7 +7417,7 @@
   </sortState>
   <dataConsolidate/>
   <dataValidations count="6">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="IP address" error="Please enter correct IP address" sqref="D33:E33 C14:AF14 C24:AF24 C20:AF20 C33:C36 C8:AF8 C6:AF6 C12:AF12 C26:AF26 C18:AF18" xr:uid="{F4A9DD59-10E1-4570-A620-994D614F80F3}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="IP address" error="Please enter correct IP address" sqref="D33:E33 C14:AF14 C24:AF24 C20:AF20 C18:AF18 C8:AF8 C6:AF6 C12:AF12 C26:AF26 C33:C36" xr:uid="{F4A9DD59-10E1-4570-A620-994D614F80F3}">
       <formula1>AND(LEN(C6)-LEN(SUBSTITUTE(C6,".",""))=3,--LEFT(C6,FIND(".",C6)-1)&lt;224,--LEFT(C6,FIND(".",C6)-1)&gt;0,--MID(SUBSTITUTE(C6,".","    "),6,5)&lt;256,--MID(SUBSTITUTE(C6,".","      "),15,7)&lt;256,--MID(SUBSTITUTE(C6,".","      "),22,10)&lt;256)</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Netmask" error="Please enter correct netmask" sqref="C25:AF25 C7:AF7 C13:AF13 C19:AF19" xr:uid="{A53661DA-36E4-4B74-A278-B7516EFEA0F7}">
@@ -9517,27 +7436,11 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{75094916-C9E8-45BD-81BC-515462435568}"/>
     <hyperlink ref="D3:E3" r:id="rId2" display="P@ssw0rd" xr:uid="{31D6CA04-2191-4E38-A33D-DAD2D726D26A}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{E4013AA2-D05E-404A-A0EE-6C654EDFD764}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{CAC099DB-4A3A-49F0-8F57-BECAEA09C69B}"/>
-    <hyperlink ref="L3" r:id="rId5" xr:uid="{76ECA713-94B3-4C01-9B00-60BEC0FF7B77}"/>
-    <hyperlink ref="O3" r:id="rId6" xr:uid="{7C319C26-1B3F-4389-B758-CC1CF651EDCF}"/>
-    <hyperlink ref="R3" r:id="rId7" xr:uid="{69416E02-E2C4-4B10-A185-DC714EB2845D}"/>
-    <hyperlink ref="U3" r:id="rId8" xr:uid="{8793F3D4-02E1-4CCB-9644-CB75B8E718E1}"/>
-    <hyperlink ref="X3" r:id="rId9" xr:uid="{43AB24A3-3437-471E-A3F3-D04F9D3DD043}"/>
-    <hyperlink ref="AA3" r:id="rId10" xr:uid="{DA1B1DCD-847B-42CD-87FA-5E2D8941F2D1}"/>
-    <hyperlink ref="AD3" r:id="rId11" xr:uid="{CE8E324B-30C0-4683-962E-D63A7FDFFC2C}"/>
-    <hyperlink ref="G3:H3" r:id="rId12" display="P@ssw0rd" xr:uid="{492DFDAD-E1CC-4F83-95F1-6EF50CB9C06D}"/>
-    <hyperlink ref="J3:K3" r:id="rId13" display="P@ssw0rd" xr:uid="{0F86CB8B-82C4-4411-BF8A-C159AD207FEC}"/>
-    <hyperlink ref="M3:N3" r:id="rId14" display="P@ssw0rd" xr:uid="{122AD60B-FB97-4079-8CE2-CCF8C969D0B4}"/>
-    <hyperlink ref="P3:Q3" r:id="rId15" display="P@ssw0rd" xr:uid="{F073BAA8-E34B-4EEA-98FD-028C32EBC78B}"/>
-    <hyperlink ref="S3:T3" r:id="rId16" display="P@ssw0rd" xr:uid="{215E8C31-AD65-4633-A5C0-60DD87DDF900}"/>
-    <hyperlink ref="V3:W3" r:id="rId17" display="P@ssw0rd" xr:uid="{030C81AD-5A20-4E59-B218-A94B5EF008DB}"/>
-    <hyperlink ref="Y3:Z3" r:id="rId18" display="P@ssw0rd" xr:uid="{768D9FD5-5982-450A-B269-A31289920CE6}"/>
-    <hyperlink ref="AB3:AC3" r:id="rId19" display="P@ssw0rd" xr:uid="{75883D9A-8CD6-42CD-BE06-EA040F260831}"/>
-    <hyperlink ref="AE3:AF3" r:id="rId20" display="P@ssw0rd" xr:uid="{99CE1535-78BB-43F3-9938-B205D98A12B1}"/>
+    <hyperlink ref="G3:H3" r:id="rId4" display="P@ssw0rd" xr:uid="{492DFDAD-E1CC-4F83-95F1-6EF50CB9C06D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
-  <drawing r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
@@ -9557,7 +7460,7 @@
           <x14:formula1>
             <xm:f>Check_vars!$A$17:$A$26</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:AF11 C5:AF5 C23:AF23 C17:AF17</xm:sqref>
+          <xm:sqref>C5:AF5 C17:AF17 C23:AF23 C11:AF11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09E7E420-A6BE-45E3-B8F6-CCC0860D615E}">
           <x14:formula1>
@@ -9620,10 +7523,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>752</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>753</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31" t="s">
@@ -9731,10 +7634,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31" t="s">
@@ -9865,10 +7768,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
@@ -9953,10 +7856,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>343</v>
@@ -10137,7 +8040,7 @@
         <v>688</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31" t="s">

--- a/AF4_conf.xlsx
+++ b/AF4_conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTWork\SCRIPTS\ptaf-pro-conf_ansible\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8272A32-DBD7-4BC1-B40C-883A5FB0ACC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B6584D-4BD1-4C87-AA77-19311FFF06EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="11745" xr2:uid="{BDDD9177-F6CF-42C1-B99E-562E59E75EA2}"/>
   </bookViews>
@@ -2267,9 +2267,6 @@
     <t>bond3 интерфейс2</t>
   </si>
   <si>
-    <t xml:space="preserve">Нужны бонды? </t>
-  </si>
-  <si>
     <t>Режим бонда (0 — round-robin; 1 — active-backup); 2 — balance-xor; 3 — broadcast; 4 — 802.3ad; 5 — balance-tlb; 6 — balance-alb.)</t>
   </si>
   <si>
@@ -2397,6 +2394,9 @@
   </si>
   <si>
     <t>192.168.70.175</t>
+  </si>
+  <si>
+    <t>Нужны бонды? Выберите yes и нажмите на поле слева плюсик</t>
   </si>
 </sst>
 </file>
@@ -3111,8 +3111,8 @@
   <dimension ref="A1:AP594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3202,40 +3202,40 @@
         <v>676</v>
       </c>
       <c r="U1" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>769</v>
       </c>
       <c r="AP1" s="31"/>
     </row>
@@ -3348,16 +3348,16 @@
         <v>698</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>746</v>
-      </c>
       <c r="F4" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>770</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>771</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -3443,19 +3443,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>776</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>777</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>778</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>779</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -3539,19 +3539,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -3735,19 +3735,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>749</v>
-      </c>
       <c r="F12" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>772</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>773</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -4014,10 +4014,10 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -4098,10 +4098,10 @@
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
@@ -4270,10 +4270,10 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>783</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>784</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
@@ -4583,7 +4583,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -4602,7 +4602,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D35" s="10"/>
       <c r="F35" s="25" t="str">
@@ -4619,7 +4619,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>694</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="42" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>700</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="48" spans="1:42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>716</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="49" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>704</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="56" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>705</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="63" spans="1:42" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B63" s="24" t="s">
         <v>706</v>
@@ -7523,10 +7523,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
+        <v>750</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>751</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>752</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31" t="s">
@@ -7634,10 +7634,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31" t="s">
@@ -7768,10 +7768,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
@@ -7856,10 +7856,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>343</v>
@@ -8040,7 +8040,7 @@
         <v>688</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31" t="s">
